--- a/sle/SLE_dmp_teze_uygun.xlsx
+++ b/sle/SLE_dmp_teze_uygun.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,303 +360,3093 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>logFC</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AveExpr</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>P.Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>adj.P.Val</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Island</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>chr</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>strand</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>start</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>strand</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2">
+        <v>-1.686057958199925</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>-18.62115795757325</v>
+      </c>
+      <c r="D2">
+        <v>2.506217795032427E-57</v>
+      </c>
+      <c r="E2">
+        <v>1.208009508294605E-51</v>
+      </c>
+      <c r="F2">
+        <v>111.3324965020662</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>IFI44L</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5'UTR</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>chr1</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="K2">
+        <v>79088769</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M2">
         <v>79088669</v>
       </c>
-      <c r="C2">
+      <c r="N2">
         <v>79088869</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>cg05696877</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>-2.445110408404426</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>-17.75683893267856</v>
+      </c>
+      <c r="D3">
+        <v>1.81774424911242E-53</v>
+      </c>
+      <c r="E3">
+        <v>4.380809083967161E-48</v>
+      </c>
+      <c r="F3">
+        <v>103.3955698139363</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MX1;MX1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5'UTR;5'UTR</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>S_Shore</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>chr21</t>
+        </is>
+      </c>
+      <c r="K3">
+        <v>42799141</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3">
+        <v>42799041</v>
+      </c>
+      <c r="N3">
+        <v>42799241</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>cg21549285</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>-1.493622997539036</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>-17.5604028953296</v>
+      </c>
+      <c r="D4">
+        <v>1.381350892622112E-52</v>
+      </c>
+      <c r="E4">
+        <v>2.219393456661071E-47</v>
+      </c>
+      <c r="F4">
+        <v>101.57375728478</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>MX1;MX1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>TSS1500;5'UTR</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>N_Shore</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>chr21</t>
+        </is>
+      </c>
+      <c r="K4">
+        <v>42797588</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="M4">
+        <v>42797488</v>
+      </c>
+      <c r="N4">
+        <v>42797688</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>cg22862003</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>-1.58652253957719</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>-17.25649056017596</v>
+      </c>
+      <c r="D5">
+        <v>3.160343363813571E-51</v>
+      </c>
+      <c r="E5">
+        <v>3.808253257687401E-46</v>
+      </c>
+      <c r="F5">
+        <v>98.75879696046785</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PARP9;PARP9;DTX3L;PARP9;PARP9;PARP9;PARP9</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5'UTR;5'UTR;TSS1500;5'UTR;5'UTR;5'UTR;5'UTR</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>N_Shore</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>chr3</t>
+        </is>
+      </c>
+      <c r="K5">
+        <v>122281939</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M5">
+        <v>122281839</v>
+      </c>
+      <c r="N5">
+        <v>122282039</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>cg08122652</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>-1.862559808235399</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>-17.02190158165313</v>
+      </c>
+      <c r="D6">
+        <v>3.516679191686143E-50</v>
+      </c>
+      <c r="E6">
+        <v>3.390113907577359E-45</v>
+      </c>
+      <c r="F6">
+        <v>96.58952192503807</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PARP9;PARP9;DTX3L;PARP9;PARP9;PARP9;PARP9</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5'UTR;5'UTR;TSS1500;5'UTR;5'UTR;5'UTR;5'UTR</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>N_Shore</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>chr3</t>
+        </is>
+      </c>
+      <c r="K6">
+        <v>122281881</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M6">
+        <v>122281781</v>
+      </c>
+      <c r="N6">
+        <v>122281981</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>cg22930808</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>-1.28105306727015</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>-16.12450916689161</v>
+      </c>
+      <c r="D7">
+        <v>3.482621927583357E-46</v>
+      </c>
+      <c r="E7">
+        <v>2.797735303674694E-41</v>
+      </c>
+      <c r="F7">
+        <v>88.26885037080241</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>MX1;MX1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TSS200;5'UTR</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>N_Shore</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>chr21</t>
         </is>
       </c>
-      <c r="B3">
-        <v>42799041</v>
-      </c>
-      <c r="C3">
-        <v>42799241</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>cg21549285</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="K7">
+        <v>42797847</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="M7">
+        <v>42797747</v>
+      </c>
+      <c r="N7">
+        <v>42797947</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>cg26312951</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>-1.403125196344121</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>-14.87855537768609</v>
+      </c>
+      <c r="D8">
+        <v>8.867651262865645E-41</v>
+      </c>
+      <c r="E8">
+        <v>6.106074638510793E-36</v>
+      </c>
+      <c r="F8">
+        <v>77.00646249414677</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>IFI44L</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TSS1500</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>chr1</t>
+        </is>
+      </c>
+      <c r="K8">
+        <v>79085250</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M8">
+        <v>79085150</v>
+      </c>
+      <c r="N8">
+        <v>79085350</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>cg06872964</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>-1.381202235568789</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>-14.83485103420605</v>
+      </c>
+      <c r="D9">
+        <v>1.418773669163098E-40</v>
+      </c>
+      <c r="E9">
+        <v>8.54820003006199E-36</v>
+      </c>
+      <c r="F9">
+        <v>76.56524236446445</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CMPK2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>N_Shore</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>chr2</t>
+        </is>
+      </c>
+      <c r="K9">
+        <v>7004578</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9">
+        <v>7004478</v>
+      </c>
+      <c r="N9">
+        <v>7004678</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>cg01028142</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>-1.454439477249876</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>-14.63600868495664</v>
+      </c>
+      <c r="D10">
+        <v>9.74687434327159E-40</v>
+      </c>
+      <c r="E10">
+        <v>5.220046853142913E-35</v>
+      </c>
+      <c r="F10">
+        <v>74.82836830837513</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>DDX60</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5'UTR</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>N_Shore</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>chr4</t>
+        </is>
+      </c>
+      <c r="K10">
+        <v>169239131</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10">
+        <v>169239031</v>
+      </c>
+      <c r="N10">
+        <v>169239231</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>cg05883128</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>-1.816421665399537</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>-14.12944636168924</v>
+      </c>
+      <c r="D11">
+        <v>1.154052186570216E-37</v>
+      </c>
+      <c r="E11">
+        <v>5.562589241877772E-33</v>
+      </c>
+      <c r="F11">
+        <v>70.56233140682399</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>PARP9;PARP9;DTX3L;PARP9;PARP9;PARP9;PARP9</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5'UTR;5'UTR;TSS1500;5'UTR;5'UTR;5'UTR;5'UTR</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>N_Shore</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>chr3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>122281839</v>
-      </c>
-      <c r="C4">
-        <v>122282039</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>cg08122652</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="K11">
+        <v>122281975</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M11">
+        <v>122281875</v>
+      </c>
+      <c r="N11">
+        <v>122282075</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>cg00959259</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>-1.725606241160898</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>-14.09043914779053</v>
+      </c>
+      <c r="D12">
+        <v>2.038083468709877E-37</v>
+      </c>
+      <c r="E12">
+        <v>8.930603839413675E-33</v>
+      </c>
+      <c r="F12">
+        <v>69.9673341505205</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>USP18</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5'UTR</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>S_Shelf</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>chr22</t>
+        </is>
+      </c>
+      <c r="K12">
+        <v>18635460</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="M12">
+        <v>18635360</v>
+      </c>
+      <c r="N12">
+        <v>18635560</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>cg14293575</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>-1.406692103078321</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>-13.79605242693994</v>
+      </c>
+      <c r="D13">
+        <v>3.978765015077635E-36</v>
+      </c>
+      <c r="E13">
+        <v>1.598153859243746E-31</v>
+      </c>
+      <c r="F13">
+        <v>67.20725296413337</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>IRF7;IRF7;IRF7</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Body;Body;Body</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Island</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>chr11</t>
+        </is>
+      </c>
+      <c r="K13">
+        <v>614787</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M13">
+        <v>614687</v>
+      </c>
+      <c r="N13">
+        <v>614887</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>cg22016995</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>-1.113838440428674</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>-13.50782297637407</v>
+      </c>
+      <c r="D14">
+        <v>5.638448888033829E-35</v>
+      </c>
+      <c r="E14">
+        <v>1.856666674956327E-30</v>
+      </c>
+      <c r="F14">
+        <v>64.84246032551616</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>IFI44L</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>TSS1500</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>chr1</t>
+        </is>
+      </c>
+      <c r="K14">
+        <v>79085162</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M14">
+        <v>79085062</v>
+      </c>
+      <c r="N14">
+        <v>79085262</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>cg13304609</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>-1.230907782846211</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>-13.50779880801212</v>
+      </c>
+      <c r="D15">
+        <v>5.639753384014002E-35</v>
+      </c>
+      <c r="E15">
+        <v>1.856666674956327E-30</v>
+      </c>
+      <c r="F15">
+        <v>64.84224929400474</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>IFIT3;IFIT3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Body;Body</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>chr10</t>
+        </is>
+      </c>
+      <c r="K15">
+        <v>91093005</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M15">
+        <v>91092905</v>
+      </c>
+      <c r="N15">
+        <v>91093105</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>cg06188083</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>-1.876989602562805</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>-13.28188589279334</v>
+      </c>
+      <c r="D16">
+        <v>4.995571025599254E-34</v>
+      </c>
+      <c r="E16">
+        <v>1.50493138262123E-29</v>
+      </c>
+      <c r="F16">
+        <v>62.84078456175599</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>LY6E;LY6E</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>3'UTR;3'UTR</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>N_Shelf</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>chr8</t>
+        </is>
+      </c>
+      <c r="K16">
+        <v>144103587</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M16">
+        <v>144103487</v>
+      </c>
+      <c r="N16">
+        <v>144103687</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>cg14392283</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>-1.147624084805669</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>-12.90923043664487</v>
+      </c>
+      <c r="D17">
+        <v>1.727644329417266E-32</v>
+      </c>
+      <c r="E17">
+        <v>4.626295583337608E-28</v>
+      </c>
+      <c r="F17">
+        <v>59.59310125412225</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>IFI44</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>chr1</t>
+        </is>
+      </c>
+      <c r="K17">
+        <v>79118191</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M17">
+        <v>79118091</v>
+      </c>
+      <c r="N17">
+        <v>79118291</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>cg01079652</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>-1.290669105602896</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>-12.43761057136977</v>
+      </c>
+      <c r="D18">
+        <v>1.332368739374806E-30</v>
+      </c>
+      <c r="E18">
+        <v>2.91912906464706E-26</v>
+      </c>
+      <c r="F18">
+        <v>55.64231074369152</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>PARP14</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>S_Shore</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>chr3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>122281781</v>
-      </c>
-      <c r="C5">
-        <v>122281981</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>cg22930808</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="K18">
+        <v>122400474</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="M18">
+        <v>122400374</v>
+      </c>
+      <c r="N18">
+        <v>122400574</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>cg01948202</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>-1.468914389261408</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>-12.2813741021905</v>
+      </c>
+      <c r="D19">
+        <v>5.732848154509151E-30</v>
+      </c>
+      <c r="E19">
+        <v>1.201418032484428E-25</v>
+      </c>
+      <c r="F19">
+        <v>54.29624396133893</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>IFI44L</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>TSS1500</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>chr1</t>
+        </is>
+      </c>
+      <c r="K19">
+        <v>79085586</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M19">
+        <v>79085486</v>
+      </c>
+      <c r="N19">
+        <v>79085686</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>cg03607951</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>-1.462281049531757</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>-12.12844679099104</v>
+      </c>
+      <c r="D20">
+        <v>2.369038598043145E-29</v>
+      </c>
+      <c r="E20">
+        <v>4.567553797799143E-25</v>
+      </c>
+      <c r="F20">
+        <v>52.98905426756373</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>PLSCR1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>5'UTR</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>N_Shore</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>chr3</t>
         </is>
       </c>
-      <c r="B6">
-        <v>122281875</v>
-      </c>
-      <c r="C6">
-        <v>122282075</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>cg00959259</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="K20">
+        <v>146260954</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="M20">
+        <v>146260854</v>
+      </c>
+      <c r="N20">
+        <v>146261054</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>cg06981309</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>-1.679891777904666</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>-11.17021673984395</v>
+      </c>
+      <c r="D21">
+        <v>1.294972701454322E-25</v>
+      </c>
+      <c r="E21">
+        <v>2.013494570853196E-21</v>
+      </c>
+      <c r="F21">
+        <v>45.08073290936519</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>RSAD2</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1stExon</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>chr2</t>
+        </is>
+      </c>
+      <c r="K21">
+        <v>7018153</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M21">
+        <v>7018053</v>
+      </c>
+      <c r="N21">
+        <v>7018253</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>cg10549986</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>-1.519060013076705</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>-11.07860550700205</v>
+      </c>
+      <c r="D22">
+        <v>2.673498752762222E-25</v>
+      </c>
+      <c r="E22">
+        <v>3.904968988864106E-21</v>
+      </c>
+      <c r="F22">
+        <v>44.45582087415223</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>NLRC5</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>TSS1500</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>N_Shore</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>chr16</t>
+        </is>
+      </c>
+      <c r="K22">
+        <v>57023022</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M22">
+        <v>57022922</v>
+      </c>
+      <c r="N22">
+        <v>57023122</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>cg07839457</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>-1.390276365828295</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>-11.04949154301952</v>
+      </c>
+      <c r="D23">
+        <v>3.444772057942265E-25</v>
+      </c>
+      <c r="E23">
+        <v>4.883521634671945E-21</v>
+      </c>
+      <c r="F23">
+        <v>44.22327225349899</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>IFIT1</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>chr10</t>
+        </is>
+      </c>
+      <c r="K23">
+        <v>91153143</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M23">
+        <v>91153043</v>
+      </c>
+      <c r="N23">
+        <v>91153243</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>cg05552874</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>-1.060653371956198</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>-9.575911007728163</v>
+      </c>
+      <c r="D24">
+        <v>7.705912587837449E-20</v>
+      </c>
+      <c r="E24">
+        <v>8.253974215334644E-16</v>
+      </c>
+      <c r="F24">
+        <v>32.91097326580237</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>IFI44L</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TSS1500</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>chr1</t>
+        </is>
+      </c>
+      <c r="K24">
+        <v>79085713</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M24">
+        <v>79085613</v>
+      </c>
+      <c r="N24">
+        <v>79085813</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>cg17980508</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>-1.494384529923999</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>-7.846365718423505</v>
+      </c>
+      <c r="D25">
+        <v>3.344743059783206E-14</v>
+      </c>
+      <c r="E25">
+        <v>1.697034608979794E-10</v>
+      </c>
+      <c r="F25">
+        <v>20.98263108880296</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>IFITM1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>N_Shore</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>chr11</t>
+        </is>
+      </c>
+      <c r="K25">
+        <v>315102</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M25">
+        <v>315002</v>
+      </c>
+      <c r="N25">
+        <v>315202</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>cg23570810</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>-1.397500831892793</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>-7.379112129975902</v>
+      </c>
+      <c r="D26">
+        <v>8.163239283770209E-13</v>
+      </c>
+      <c r="E26">
+        <v>3.278935125811383E-09</v>
+      </c>
+      <c r="F26">
+        <v>18.04791597288159</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>IFITM1</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>3'UTR</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>N_Shore</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>chr11</t>
+        </is>
+      </c>
+      <c r="K26">
+        <v>315262</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M26">
+        <v>315162</v>
+      </c>
+      <c r="N26">
+        <v>315362</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>cg03038262</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>-1.521788671345627</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>-7.204863812038697</v>
+      </c>
+      <c r="D27">
+        <v>2.576523591460706E-12</v>
+      </c>
+      <c r="E27">
+        <v>1.001530043308079E-08</v>
+      </c>
+      <c r="F27">
+        <v>16.99603514601827</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>THUMPD1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>N_Shelf</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>chr16</t>
+        </is>
+      </c>
+      <c r="K27">
+        <v>20750043</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M27">
+        <v>20749943</v>
+      </c>
+      <c r="N27">
+        <v>20750143</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>cg26846609</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>1.024764654248435</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>7.107016660838434</v>
+      </c>
+      <c r="D28">
+        <v>4.892738345074209E-12</v>
+      </c>
+      <c r="E28">
+        <v>1.800247592379766E-08</v>
+      </c>
+      <c r="F28">
+        <v>16.4060066457557</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>PRIC285;PRIC285</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Body;1stExon</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Island</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>chr20</t>
+        </is>
+      </c>
+      <c r="K28">
+        <v>62198872</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M28">
+        <v>62198772</v>
+      </c>
+      <c r="N28">
+        <v>62198972</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>cg15262954</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>-1.050770184016657</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>-6.460185872345974</v>
+      </c>
+      <c r="D29">
+        <v>2.801004318074231E-10</v>
+      </c>
+      <c r="E29">
+        <v>6.923579929914717E-07</v>
+      </c>
+      <c r="F29">
+        <v>12.70212981826689</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>STAT1;STAT1</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>5'UTR;5'UTR</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>N_Shelf</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>chr2</t>
+        </is>
+      </c>
+      <c r="K29">
+        <v>191875807</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M29">
+        <v>191875707</v>
+      </c>
+      <c r="N29">
+        <v>191875907</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>cg14951497</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>-1.628526402786108</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>-6.241374490045327</v>
+      </c>
+      <c r="D30">
+        <v>1.029676796639248E-09</v>
+      </c>
+      <c r="E30">
+        <v>2.26625280531553E-06</v>
+      </c>
+      <c r="F30">
+        <v>11.51239946658054</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>TGFB3</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>chr14</t>
+        </is>
+      </c>
+      <c r="K30">
+        <v>76443578</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M30">
+        <v>76443478</v>
+      </c>
+      <c r="N30">
+        <v>76443678</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>cg21193926</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>-1.114092729696149</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>-6.193448612824088</v>
+      </c>
+      <c r="D31">
+        <v>1.362960422380339E-09</v>
+      </c>
+      <c r="E31">
+        <v>2.85602014955511E-06</v>
+      </c>
+      <c r="F31">
+        <v>11.25631968949689</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>STAT1;STAT1</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>5'UTR;5'UTR</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>N_Shore</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>chr2</t>
+        </is>
+      </c>
+      <c r="K31">
+        <v>191876673</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M31">
+        <v>191876573</v>
+      </c>
+      <c r="N31">
+        <v>191876773</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>cg00676801</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>-1.329530172068788</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>-6.023534617728463</v>
+      </c>
+      <c r="D32">
+        <v>3.632710078373974E-09</v>
+      </c>
+      <c r="E32">
+        <v>6.893639454041919E-06</v>
+      </c>
+      <c r="F32">
+        <v>10.36164377641518</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Island</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>chr11</t>
+        </is>
+      </c>
+      <c r="K32">
+        <v>315908</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M32">
+        <v>315808</v>
+      </c>
+      <c r="N32">
+        <v>316008</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>cg12047941</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>-1.463181458424639</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>-5.699829911964486</v>
+      </c>
+      <c r="D33">
+        <v>2.052617516977548E-08</v>
+      </c>
+      <c r="E33">
+        <v>3.121047022936161E-05</v>
+      </c>
+      <c r="F33">
+        <v>8.833489996286652</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>B4GALNT3</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>3'UTR</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>chr12</t>
+        </is>
+      </c>
+      <c r="K33">
+        <v>670974</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>670874</v>
+      </c>
+      <c r="N33">
+        <v>671074</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>cg25165144</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>-1.170972887260371</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>-5.652589448533171</v>
+      </c>
+      <c r="D34">
+        <v>2.861657500458066E-08</v>
+      </c>
+      <c r="E34">
+        <v>4.192502199113343E-05</v>
+      </c>
+      <c r="F34">
+        <v>8.481329575575622</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>IFITM1</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>3'UTR</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>N_Shore</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>chr11</t>
+        </is>
+      </c>
+      <c r="K34">
+        <v>315118</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M34">
+        <v>315018</v>
+      </c>
+      <c r="N34">
+        <v>315218</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>cg21686213</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>-1.250209817694317</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>-5.528311275345474</v>
+      </c>
+      <c r="D35">
+        <v>5.579887919454304E-08</v>
+      </c>
+      <c r="E35">
+        <v>7.49173781787346E-05</v>
+      </c>
+      <c r="F35">
+        <v>7.874149363632341</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ATXN7L1</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>chr7</t>
+        </is>
+      </c>
+      <c r="K35">
+        <v>105399252</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M35">
+        <v>105399152</v>
+      </c>
+      <c r="N35">
+        <v>105399352</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>cg16963093</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>1.579609781718185</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>5.299900627102275</v>
+      </c>
+      <c r="D36">
+        <v>1.706800243423261E-07</v>
+      </c>
+      <c r="E36">
+        <v>0.0001968148926629734</v>
+      </c>
+      <c r="F36">
+        <v>6.908109566148509</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>KRTAP12-4;C21orf29</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TSS1500;Body</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>chr21</t>
+        </is>
+      </c>
+      <c r="K36">
+        <v>46075092</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M36">
+        <v>46074992</v>
+      </c>
+      <c r="N36">
+        <v>46075192</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>cg08514194</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>-1.152481693779161</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>-5.289625510900243</v>
+      </c>
+      <c r="D37">
+        <v>1.88981763457913E-07</v>
+      </c>
+      <c r="E37">
+        <v>0.0002148352709800268</v>
+      </c>
+      <c r="F37">
+        <v>6.784458611605892</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>C20orf11</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>3'UTR</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>chr20</t>
+        </is>
+      </c>
+      <c r="K37">
+        <v>61577629</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M37">
+        <v>61577529</v>
+      </c>
+      <c r="N37">
+        <v>61577729</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>cg11366696</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>-1.178377783237783</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>-5.254063404937621</v>
+      </c>
+      <c r="D38">
+        <v>2.271008779287082E-07</v>
+      </c>
+      <c r="E38">
+        <v>0.0002522206420876198</v>
+      </c>
+      <c r="F38">
+        <v>6.616983792014037</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>HLA-DRB1</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>S_Shore</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>chr6</t>
+        </is>
+      </c>
+      <c r="K38">
+        <v>32552350</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M38">
+        <v>32552250</v>
+      </c>
+      <c r="N38">
+        <v>32552450</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>cg09949906</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>-1.410833125616738</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>-4.980145151216185</v>
+      </c>
+      <c r="D39">
+        <v>8.87435747080103E-07</v>
+      </c>
+      <c r="E39">
+        <v>0.0007707179590474686</v>
+      </c>
+      <c r="F39">
+        <v>5.385048334790044</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FGF11;CHRNB1</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>3'UTR;TSS1500</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>N_Shore</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>chr17</t>
+        </is>
+      </c>
+      <c r="K39">
+        <v>7347123</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M39">
+        <v>7347023</v>
+      </c>
+      <c r="N39">
+        <v>7347223</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>cg05305893</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>1.109771604292326</v>
+      </c>
+      <c r="C40">
+        <v>4.940626491967256</v>
+      </c>
+      <c r="D40">
+        <v>1.047708710840834E-06</v>
+      </c>
+      <c r="E40">
+        <v>0.0008844147761275593</v>
+      </c>
+      <c r="F40">
+        <v>5.246719531946733</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ZNF137</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>TSS200</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>chr19</t>
+        </is>
+      </c>
+      <c r="K40">
+        <v>53099757</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M40">
+        <v>53099657</v>
+      </c>
+      <c r="N40">
+        <v>53099857</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>cg01270299</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>1.230269924339388</v>
+      </c>
+      <c r="C41">
+        <v>4.884707014138701</v>
+      </c>
+      <c r="D41">
+        <v>1.3889880249612E-06</v>
+      </c>
+      <c r="E41">
+        <v>0.001105668422384484</v>
+      </c>
+      <c r="F41">
+        <v>4.986066050534087</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>chr17</t>
+        </is>
+      </c>
+      <c r="K41">
+        <v>77545900</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M41">
+        <v>77545800</v>
+      </c>
+      <c r="N41">
+        <v>77546000</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>cg00842582</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>-1.092683514784396</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>-4.862796255287053</v>
+      </c>
+      <c r="D42">
+        <v>1.619171918093392E-06</v>
+      </c>
+      <c r="E42">
+        <v>0.001247914317781386</v>
+      </c>
+      <c r="F42">
+        <v>4.823396358162681</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>chr14</t>
+        </is>
+      </c>
+      <c r="K42">
+        <v>96563269</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M42">
+        <v>96563169</v>
+      </c>
+      <c r="N42">
+        <v>96563369</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>cg18239511</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>-1.129656509710047</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>-4.830971569688879</v>
+      </c>
+      <c r="D43">
+        <v>1.885205688277408E-06</v>
+      </c>
+      <c r="E43">
+        <v>0.001383072401488816</v>
+      </c>
+      <c r="F43">
+        <v>4.686163188835417</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>TP53INP2</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>TSS200</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Island</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>chr20</t>
+        </is>
+      </c>
+      <c r="K43">
+        <v>33292126</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M43">
+        <v>33292026</v>
+      </c>
+      <c r="N43">
+        <v>33292226</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>cg20592836</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>-1.12391256149311</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>-4.812059551582587</v>
+      </c>
+      <c r="D44">
+        <v>2.015339277964782E-06</v>
+      </c>
+      <c r="E44">
+        <v>0.001443393177823797</v>
+      </c>
+      <c r="F44">
+        <v>4.637386003863238</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>TMCO3</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>N_Shelf</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>chr13</t>
+        </is>
+      </c>
+      <c r="K44">
+        <v>114161875</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M44">
+        <v>114161775</v>
+      </c>
+      <c r="N44">
+        <v>114161975</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>cg11935063</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>1.058578713593483</v>
+      </c>
+      <c r="C45">
+        <v>4.646818079724393</v>
+      </c>
+      <c r="D45">
+        <v>4.38715037860464E-06</v>
+      </c>
+      <c r="E45">
+        <v>0.002623608459354007</v>
+      </c>
+      <c r="F45">
+        <v>3.933908153186529</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>N_Shelf</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>chr16</t>
+        </is>
+      </c>
+      <c r="K45">
+        <v>89111808</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M45">
+        <v>89111708</v>
+      </c>
+      <c r="N45">
+        <v>89111908</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>cg00586531</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>-1.060962068107114</v>
+      </c>
+      <c r="C46">
+        <v>-4.588112461987783</v>
+      </c>
+      <c r="D46">
+        <v>5.700678060051493E-06</v>
+      </c>
+      <c r="E46">
+        <v>0.003151095560017339</v>
+      </c>
+      <c r="F46">
+        <v>3.699203738409226</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>N_Shore</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>chrX</t>
+        </is>
+      </c>
+      <c r="K46">
+        <v>152341325</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M46">
+        <v>152341225</v>
+      </c>
+      <c r="N46">
+        <v>152341425</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>cg25943406</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>-1.030764207694191</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>-4.591209029379792</v>
+      </c>
+      <c r="D47">
+        <v>5.774410522429458E-06</v>
+      </c>
+      <c r="E47">
+        <v>0.00318090827870127</v>
+      </c>
+      <c r="F47">
+        <v>3.678232989926062</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>PDHA2</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>TSS1500</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>chr4</t>
+        </is>
+      </c>
+      <c r="K47">
+        <v>96760945</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M47">
+        <v>96760845</v>
+      </c>
+      <c r="N47">
+        <v>96761045</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>cg10590622</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>-1.037727136399507</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>-4.582195419075957</v>
+      </c>
+      <c r="D48">
+        <v>5.916832665836354E-06</v>
+      </c>
+      <c r="E48">
+        <v>0.003245504680231155</v>
+      </c>
+      <c r="F48">
+        <v>3.662456504692566</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>HDAC4</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>chr2</t>
+        </is>
+      </c>
+      <c r="K48">
+        <v>240019300</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M48">
+        <v>240019200</v>
+      </c>
+      <c r="N48">
+        <v>240019400</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>cg25655482</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>-1.051074681785545</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>-4.484644534053323</v>
+      </c>
+      <c r="D49">
+        <v>9.209589939640493E-06</v>
+      </c>
+      <c r="E49">
+        <v>0.004403837697278191</v>
+      </c>
+      <c r="F49">
+        <v>3.263664571382765</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NCF4;NCF4</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>TSS1500;TSS1500</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>S_Shelf</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>chr22</t>
         </is>
       </c>
-      <c r="B7">
-        <v>18635360</v>
-      </c>
-      <c r="C7">
-        <v>18635560</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>cg14293575</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="K49">
+        <v>37255542</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="M49">
+        <v>37255442</v>
+      </c>
+      <c r="N49">
+        <v>37255642</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>cg09219182</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>-1.018157128793777</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>-4.449259822498705</v>
+      </c>
+      <c r="D50">
+        <v>1.095526631753747E-05</v>
+      </c>
+      <c r="E50">
+        <v>0.004997152895841077</v>
+      </c>
+      <c r="F50">
+        <v>3.10330629889042</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>PSD3;PSD3</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Body;Body</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>chr8</t>
         </is>
       </c>
-      <c r="B8">
-        <v>144103487</v>
-      </c>
-      <c r="C8">
-        <v>144103687</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>cg14392283</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="K50">
+        <v>18432000</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>chr2</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>7018053</v>
-      </c>
-      <c r="C9">
-        <v>7018253</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>cg10549986</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="M50">
+        <v>18431900</v>
+      </c>
+      <c r="N50">
+        <v>18432100</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>cg10695549</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>-1.193503555369917</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>-4.406074501676193</v>
+      </c>
+      <c r="D51">
+        <v>1.300705735197898E-05</v>
+      </c>
+      <c r="E51">
+        <v>0.005627887503537369</v>
+      </c>
+      <c r="F51">
+        <v>2.953704710807908</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>chr19</t>
+        </is>
+      </c>
+      <c r="K51">
+        <v>55735946</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>chr16</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>57022922</v>
-      </c>
-      <c r="C10">
-        <v>57023122</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>cg07839457</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>chr16</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>20749943</v>
-      </c>
-      <c r="C11">
-        <v>20750143</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>cg26846609</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>chr14</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>76443478</v>
-      </c>
-      <c r="C12">
-        <v>76443678</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>cg21193926</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>chr21</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>46074992</v>
-      </c>
-      <c r="C13">
-        <v>46075192</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>cg08514194</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M51">
+        <v>55735846</v>
+      </c>
+      <c r="N51">
+        <v>55736046</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>cg02890235</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>-1.133231778192837</v>
+      </c>
+      <c r="C52">
+        <v>-4.312910837219925</v>
+      </c>
+      <c r="D52">
+        <v>1.933968116163099E-05</v>
+      </c>
+      <c r="E52">
+        <v>0.007328477215654047</v>
+      </c>
+      <c r="F52">
+        <v>2.596092620942805</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>OpenSea</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>chr11</t>
+        </is>
+      </c>
+      <c r="K52">
+        <v>27883440</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M52">
+        <v>27883340</v>
+      </c>
+      <c r="N52">
+        <v>27883540</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>cg22108909</t>
         </is>
       </c>
     </row>
